--- a/medicine/Sexualité et sexologie/365_Jours___L'Année_d'après/365_Jours___L'Année_d'après.xlsx
+++ b/medicine/Sexualité et sexologie/365_Jours___L'Année_d'après/365_Jours___L'Année_d'après.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>365_Jours_:_L%27Ann%C3%A9e_d%27apr%C3%A8s</t>
+          <t>365_Jours_:_L'Année_d'après</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">365 Jours : L'Année d'après (Kolejne 365 dni) est un film polonais dramatico-érotique réalisé par Barbara Białowąs et Tomasz Mandes, sorti en 2022 sur Netflix[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">365 Jours : L'Année d'après (Kolejne 365 dni) est un film polonais dramatico-érotique réalisé par Barbara Białowąs et Tomasz Mandes, sorti en 2022 sur Netflix.
 Il s'agit de l'adaptation du troisième roman Kolejne 365 dni de Blanka Lipińska (2019). Le film troisième opus de la trilogie sur les relations entre Laura et Massimo en reprend les mêmes personnages
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>365_Jours_:_L%27Ann%C3%A9e_d%27apr%C3%A8s</t>
+          <t>365_Jours_:_L'Année_d'après</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La stabilité du couple formé par Massimo et Laura est perturbé par l'attitude de Nacho, le fils de la Mafia locale
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>365_Jours_:_L%27Ann%C3%A9e_d%27apr%C3%A8s</t>
+          <t>365_Jours_:_L'Année_d'après</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original polonais : Kolejne 365 dni
@@ -559,20 +575,20 @@
 Son : Filip Krzemien, Michal Walczynski, Michal Wilczewski
 Montage : Marcin Drewnowski
 Production : Maciej Kawulski, Ewa Lewandowska et Tomasz Mandes
-Sociétés de production[2] : Ekipa et Open Mind One
+Sociétés de production : Ekipa et Open Mind One
 Société de distribution : Netflix
 Budget : n/a
 Pays de production :  Pologne
 Langues originales : polonais, anglais
-Format[3] : couleur - 35 mm - 2,35:1 (CinemaScope) - son Dolby Digital
+Format : couleur - 35 mm - 2,35:1 (CinemaScope) - son Dolby Digital
 Genre : drame, érotique, romance, thriller
 Durée : 112 minutes
-Date de sortie[1] :
+Date de sortie :
 Monde : 19 août 2022 (Netflix)
 Classification :
-Pologne : plus de 18 ans[4]
-France : interdit aux moins de 18 ans, conseillé aux 18 ans et plus sur Netflix[5]
-Belgique : potentiellement préjudiciable jusqu'à 16 ans (KNT/ENA : Kinderen Niet Toegelaten  / Enfants Non Admis)[6],[N 1]</t>
+Pologne : plus de 18 ans
+France : interdit aux moins de 18 ans, conseillé aux 18 ans et plus sur Netflix
+Belgique : potentiellement préjudiciable jusqu'à 16 ans (KNT/ENA : Kinderen Niet Toegelaten  / Enfants Non Admis),[N 1]</t>
         </is>
       </c>
     </row>
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>365_Jours_:_L%27Ann%C3%A9e_d%27apr%C3%A8s</t>
+          <t>365_Jours_:_L'Année_d'après</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Anna-Maria Sieklucka (VF : Stéphanie Lafforgue) : Laura Torricelli
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>365_Jours_:_L%27Ann%C3%A9e_d%27apr%C3%A8s</t>
+          <t>365_Jours_:_L'Année_d'après</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,9 +654,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu, en 2021, dans les régions d'Italie et de Pologne[7],[8] — dont Kazimierz Dolny (Lublin), Mięcierzyn (pl) (Lublin) et Łódź (Łódź)[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu, en 2021, dans les régions d'Italie et de Pologne, — dont Kazimierz Dolny (Lublin), Mięcierzyn (pl) (Lublin) et Łódź (Łódź).
 </t>
         </is>
       </c>
@@ -649,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>365_Jours_:_L%27Ann%C3%A9e_d%27apr%C3%A8s</t>
+          <t>365_Jours_:_L'Année_d'après</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,9 +687,11 @@
           <t>Nominations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.[10],[11]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.,
 Razzie Awards 2023 :
 Pire couple à l'écran
 Pire suite, prequel, remake ou dérivé</t>
